--- a/api/utils/files/tabel_jenis.xlsx
+++ b/api/utils/files/tabel_jenis.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Github\myPUHH\myPUHH\general\management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Github\myPUHH-FastAPI\api\utils\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387B9CA4-044D-4F50-8166-7491E3ABB506}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{742C9D8F-7618-4FDB-9E13-7C35E320B74C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -435,7 +434,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -792,17 +791,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864E8F0B-BA5A-442B-BBA2-5B97166A0EA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1314,7 +1313,7 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
